--- a/Course04 - Introduction to Relational Databases (RDBMS)/Module 4/Final_Project/ERD_entities.xlsx
+++ b/Course04 - Introduction to Relational Databases (RDBMS)/Module 4/Final_Project/ERD_entities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\IBMDataEngineering\Course04 - Introduction to Relational Databases (RDBMS)\Module 4\Final_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74618AB-8786-4708-B185-778BBCBE840F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5692E5-C146-4387-8F6D-BD4780A793C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40800" yWindow="6705" windowWidth="18240" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>entities</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Attribute9</t>
+  </si>
+  <si>
+    <t>transaction_id</t>
   </si>
 </sst>
 </file>
@@ -462,6 +468,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,21 +490,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -766,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G12"/>
+  <dimension ref="B2:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,29 +791,29 @@
     <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="20"/>
     </row>
     <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -815,14 +821,14 @@
       <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>34</v>
@@ -835,14 +841,14 @@
       <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>35</v>
@@ -855,14 +861,14 @@
       <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>36</v>
@@ -875,14 +881,14 @@
       <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>37</v>
@@ -895,14 +901,14 @@
       <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>38</v>
@@ -915,14 +921,14 @@
       <c r="B10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>39</v>
@@ -935,39 +941,59 @@
       <c r="B11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="19" t="s">
+    <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="20" t="s">
+      <c r="F13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>19</v>
       </c>
     </row>
